--- a/config_12.29/game_activity_config.xlsx
+++ b/config_12.29/game_activity_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
   <si>
     <t>id|行号</t>
   </si>
@@ -400,6 +400,14 @@
   </si>
   <si>
     <t>元旦福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_040_ydfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_040_ydfl","panel"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +636,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,10 +922,10 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2001,7 +2009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2019,23 +2027,44 @@
         <v>1</v>
       </c>
       <c r="G19" s="32"/>
-      <c r="H19" s="34">
+      <c r="H19" s="33">
         <v>44194.333333333336</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="32">
         <v>1609200000</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="32">
         <v>1609200000</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <v>44200.999988425923</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="32">
         <v>1609775999</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="32">
         <v>1609775999</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2047,15 +2076,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2066,17 +2097,15 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2086,13 +2115,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2104,13 +2133,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_12.29/game_activity_config.xlsx
+++ b/config_12.29/game_activity_config.xlsx
@@ -407,7 +407,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"act_040_ydfl","panel"</t>
+    <t>"xnfl_bg_1",</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -922,10 +922,10 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB19" sqref="AB19"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2076,17 +2076,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2097,15 +2095,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2115,13 +2115,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2133,13 +2133,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_12.29/game_activity_config.xlsx
+++ b/config_12.29/game_activity_config.xlsx
@@ -391,23 +391,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>sys_011_yueka_new</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xnfl_bg_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>"act_033_vip1ztlb","panel"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>sys_011_yueka_new</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_040_ydfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"xnfl_bg_1",</t>
+    <t>"act_040_ydfl","panel"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -922,10 +922,10 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
+      <selection pane="bottomRight" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1658,7 +1658,7 @@
         <v>-9</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="21">
         <v>1</v>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="W18" s="21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="X18" s="13" t="s">
         <v>42</v>
@@ -2017,7 +2017,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="32">
         <v>-12</v>
@@ -2055,7 +2055,7 @@
         <v>29</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U19" s="3">
         <v>1</v>
@@ -2076,15 +2076,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2095,17 +2097,15 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2115,13 +2115,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2133,13 +2133,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
